--- a/data/input/VF_LCC_Template_Singapore_FIXED.xlsx
+++ b/data/input/VF_LCC_Template_Singapore_FIXED.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koushik/Desktop/MS/DSS5202/Project/DSS5202_Vertical_Farming/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E45A76-40F4-1040-9C22-E039101F0E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32691A6A-D75D-664C-B30E-565784FF29B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4100" yWindow="620" windowWidth="22940" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -544,14 +544,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -858,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -987,7 +986,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="3">
-        <v>22</v>
+        <v>7.2</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>22</v>
@@ -1001,7 +1000,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="3">
-        <v>8</v>
+        <v>4.8</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>22</v>
@@ -1410,7 +1409,7 @@
       <c r="A43" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="3">
         <v>0.08</v>
       </c>
       <c r="C43" s="3" t="s">
@@ -1424,7 +1423,7 @@
       <c r="A44" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="3">
         <v>0.03</v>
       </c>
       <c r="C44" s="3" t="s">
@@ -1652,7 +1651,7 @@
       </c>
       <c r="B2">
         <f>KwhLighting</f>
-        <v>22</v>
+        <v>7.2</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -1663,7 +1662,7 @@
       </c>
       <c r="E2">
         <f>B2*D2</f>
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1672,7 +1671,7 @@
       </c>
       <c r="B3">
         <f>KwhOther</f>
-        <v>8</v>
+        <v>4.8</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -1683,7 +1682,7 @@
       </c>
       <c r="E3">
         <f>B3*D3</f>
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="F3" t="s">
         <v>72</v>
@@ -1905,12 +1904,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.6640625" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1945,7 +1947,7 @@
       </c>
       <c r="B3">
         <f>SUM(OPEX!E2:E1000)</f>
-        <v>8.4997252889026491</v>
+        <v>3.9997252889026496</v>
       </c>
       <c r="D3" t="str">
         <f>OPEX!A2</f>
@@ -1953,7 +1955,7 @@
       </c>
       <c r="E3">
         <f>OPEX!E2</f>
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1962,7 +1964,7 @@
       </c>
       <c r="B4">
         <f>B2+B3</f>
-        <v>8.5162310669556298</v>
+        <v>4.0162310669556307</v>
       </c>
       <c r="D4" t="str">
         <f>OPEX!A3</f>
@@ -1970,7 +1972,7 @@
       </c>
       <c r="E4">
         <f>OPEX!E3</f>
-        <v>2</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">

--- a/data/input/VF_LCC_Template_Singapore_FIXED.xlsx
+++ b/data/input/VF_LCC_Template_Singapore_FIXED.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koushik/Desktop/MS/DSS5202/Project/DSS5202_Vertical_Farming/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32691A6A-D75D-664C-B30E-565784FF29B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80918719-D85C-4747-9C2A-C7D2CA3B06A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4100" yWindow="620" windowWidth="22940" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Results" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Parameters!$A$1:$D$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Parameters!$A$1:$D$44</definedName>
     <definedName name="AnnualKg">Parameters!$B$2</definedName>
     <definedName name="DiscountRate">Parameters!$B$3</definedName>
     <definedName name="DistribPerKg">Parameters!$B$13</definedName>
@@ -857,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1014,7 +1014,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="3">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>23</v>
@@ -1434,7 +1434,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D42" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D44" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="B4">
         <f>WaterPerKg</f>
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="E4">
         <f>B4*D4</f>
-        <v>2.7400000000000004E-2</v>
+        <v>5.4800000000000008E-2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="B5">
         <f>WaterPerKg</f>
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="E5">
         <f>B5*D5</f>
-        <v>2.1499999999999998E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="B3">
         <f>SUM(OPEX!E2:E1000)</f>
-        <v>3.9997252889026496</v>
+        <v>4.0486252889026497</v>
       </c>
       <c r="D3" t="str">
         <f>OPEX!A2</f>
@@ -1964,7 +1964,7 @@
       </c>
       <c r="B4">
         <f>B2+B3</f>
-        <v>4.0162310669556307</v>
+        <v>4.0651310669556304</v>
       </c>
       <c r="D4" t="str">
         <f>OPEX!A3</f>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="E5">
         <f>OPEX!E4</f>
-        <v>2.7400000000000004E-2</v>
+        <v>5.4800000000000008E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="E6">
         <f>OPEX!E5</f>
-        <v>2.1499999999999998E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
